--- a/data/trans_orig/P14C99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C99-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F45DB9-1CA1-41BA-AC42-34EBB73036F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8E51E8-B0F4-43AD-AE80-F41E60767907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C55AF671-4CE3-4ED7-8754-D940C3296CB9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16BDE86-F76F-4AD3-A44B-C58D06B26130}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021B1D5-3A8C-47EF-9FD6-F6A346210B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD55ECE3-6B9B-466E-BDC7-9F2B07843E64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C99-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8E51E8-B0F4-43AD-AE80-F41E60767907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2C6A97-B279-41C1-B6C8-68B274D27834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16BDE86-F76F-4AD3-A44B-C58D06B26130}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F1EEBE2-44FF-4BEA-943D-B6301781D81C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="23">
   <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD55ECE3-6B9B-466E-BDC7-9F2B07843E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0373CFB-4621-47AF-AA82-54C5342A16EB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
